--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3406413.430387162</v>
+        <v>3510593.064838233</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>377.6206955344662</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>121.3416305177542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>85.78789945459279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>44.14254136818152</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149.0897904115733</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>389.8041563112396</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>118.6339115251867</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>210.8270300015876</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>151.2796191728993</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>205.6368254889307</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>153.6388537616475</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.0501641831062</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826188928</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>135.3135037226517</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>283.8423909339775</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>41.33703994143007</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>10.58364443467445</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>57.02356321678085</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>22.65115569188789</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>194.0265223505641</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>18.50276072357073</v>
       </c>
       <c r="X28" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428043</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>118.4437570891991</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>48.4745767553171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>32.44181015857162</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>24.27150084979029</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>9.146142788179874</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>134.7851267360005</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>193.7763380130611</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187876</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>91.32784210538742</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1575.942324366272</v>
+        <v>1942.56751757296</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1942.56751757296</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1584.30181896621</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1198.513566367965</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>787.5276615783578</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y2" t="n">
-        <v>1575.942324366272</v>
+        <v>2329.167357637082</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.7094242895083</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959802</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959802</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4519,19 +4521,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1379.423165617947</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1379.423165617947</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>1090.005995580987</v>
       </c>
       <c r="X4" t="n">
-        <v>617.5020034330385</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y4" t="n">
-        <v>396.7094242895083</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1257.336584543864</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>899.0708859371136</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>513.2826333388693</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149022</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y5" t="n">
-        <v>2198.17958617321</v>
+        <v>2012.898941548397</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>384.3315924698002</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="C7" t="n">
-        <v>384.3315924698002</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1304.179357378548</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1304.179357378548</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1014.762187341587</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>786.77263644357</v>
+        <v>881.133427010089</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.9800573000399</v>
+        <v>881.133427010089</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221566</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744041</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761599</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>261.3167113269564</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.6654861422326</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242372</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621287</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251681</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251681</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y10" t="n">
-        <v>381.6654861422326</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706079</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427009</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7297566303651</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.8463580632</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085243</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879356</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>963.223622944378</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008478</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5285,22 +5287,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,16 +5600,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424045</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>526.5658826424045</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>526.5658826424045</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5668,55 +5670,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2186.371995553553</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5759,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5831,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5981,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433381</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1781.474694297818</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1526.790206091931</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6208,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6227,16 +6229,16 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400702</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121632</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121632</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121632</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121632</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.721318527043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,7 +6645,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138403</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.50206557031</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6679,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6710,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459586</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180517</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817746</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761984</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -6944,28 +6946,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558406</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630499</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630499</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630499</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2588.787486630499</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430193</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,34 +7186,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.740023695907</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="44">
@@ -7625,61 +7627,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168621</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.4596884482325</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>83.27114962944304</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.680607402613532</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>104.0840080815012</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>206.8218058926138</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>110.223257881847</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>144.59566540674</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>92.15795203868001</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>268.0202376130202</v>
       </c>
       <c r="X28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194355</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.6938862346289</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>100.1408962628953</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>194.3131525023045</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>137.2878198583893</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>83.79952661609431</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>31.93331737597606</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>194.8566322838567</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244622</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314487</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.0322517934</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767569.1161876682</v>
+        <v>-767569.1161876684</v>
       </c>
       <c r="C6" t="n">
+        <v>561175.6295399243</v>
+      </c>
+      <c r="D6" t="n">
         <v>561175.6295399241</v>
       </c>
-      <c r="D6" t="n">
-        <v>561175.6295399249</v>
-      </c>
       <c r="E6" t="n">
-        <v>308908.5808301989</v>
+        <v>308908.5808301994</v>
       </c>
       <c r="F6" t="n">
+        <v>634321.0426375546</v>
+      </c>
+      <c r="G6" t="n">
+        <v>634321.0426375548</v>
+      </c>
+      <c r="H6" t="n">
+        <v>634321.0426375546</v>
+      </c>
+      <c r="I6" t="n">
+        <v>634321.0426375546</v>
+      </c>
+      <c r="J6" t="n">
+        <v>416789.8402402772</v>
+      </c>
+      <c r="K6" t="n">
         <v>634321.0426375547</v>
-      </c>
-      <c r="G6" t="n">
-        <v>634321.0426375543</v>
-      </c>
-      <c r="H6" t="n">
-        <v>634321.042637555</v>
-      </c>
-      <c r="I6" t="n">
-        <v>634321.0426375547</v>
-      </c>
-      <c r="J6" t="n">
-        <v>416789.8402402773</v>
-      </c>
-      <c r="K6" t="n">
-        <v>634321.042637555</v>
       </c>
       <c r="L6" t="n">
         <v>634321.0426375546</v>
@@ -26555,13 +26557,13 @@
         <v>549266.0147020428</v>
       </c>
       <c r="N6" t="n">
-        <v>634321.0426375545</v>
+        <v>634321.0426375546</v>
       </c>
       <c r="O6" t="n">
-        <v>634321.0426375548</v>
+        <v>634321.0426375546</v>
       </c>
       <c r="P6" t="n">
-        <v>634321.0426375547</v>
+        <v>634321.0426375549</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>33.30103011898728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>264.8963081382994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>81.45892164403504</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>242.0692968374314</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.6440512519072</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>17.0718894304718</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>167.5779266804262</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>14.88262538744959</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>259.6421064805542</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>143.6041432284823</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>98.49878956218052</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.53448916898859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28621,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29569,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,19 +32551,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,19 +32800,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>459.3154675919703</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>255.6522884173741</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>504.7812948344583</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>144.237359508534</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>211.3773391483997</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>465.2641870096817</v>
       </c>
       <c r="L45" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35577,16 +35579,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N15" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,19 +36199,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>316.7192231475259</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36999,16 +37001,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>362.64726091244</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>6.395920534175052</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.39556506237817</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="L45" t="n">
-        <v>439.1903400640639</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3510593.064838233</v>
+        <v>3506580.454824241</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7852820.027840751</v>
+        <v>7852820.027840749</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>285.3523007195912</v>
       </c>
       <c r="G2" t="n">
-        <v>377.6206955344662</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>44.14254136818152</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>97.97684251629967</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>389.8041563112396</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>22.86125478512508</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347161</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>210.8270300015876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>275.8041337882025</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.6368254889307</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>82.70057996958644</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>153.6388537616475</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072261</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>283.8423909339775</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,10 +1900,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>10.58364443467445</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.02356321678085</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U25" t="n">
-        <v>194.0265223505641</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>18.50276072357073</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
-        <v>118.4437570891991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>32.44181015857162</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.27150084979029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>134.7851267360005</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>193.7763380130611</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>91.32784210538742</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1942.56751757296</v>
+        <v>2222.416181075864</v>
       </c>
       <c r="C2" t="n">
-        <v>1942.56751757296</v>
+        <v>1853.453664135452</v>
       </c>
       <c r="D2" t="n">
-        <v>1584.30181896621</v>
+        <v>1495.187965528702</v>
       </c>
       <c r="E2" t="n">
-        <v>1198.513566367965</v>
+        <v>1109.399712930457</v>
       </c>
       <c r="F2" t="n">
-        <v>787.5276615783578</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612893</v>
+        <v>2609.016021139986</v>
       </c>
       <c r="X2" t="n">
-        <v>2719.306689612893</v>
+        <v>2609.016021139986</v>
       </c>
       <c r="Y2" t="n">
-        <v>2329.167357637082</v>
+        <v>2609.016021139986</v>
       </c>
     </row>
     <row r="3">
@@ -4403,19 +4403,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U4" t="n">
-        <v>1379.423165617947</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V4" t="n">
-        <v>1379.423165617947</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="W4" t="n">
-        <v>1090.005995580987</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="X4" t="n">
-        <v>862.0164446829692</v>
+        <v>1128.685788900472</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484276</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543864</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>899.0708859371136</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>513.2826333388693</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3302.513645058537</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3302.513645058537</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3048.983168332374</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2717.920280988803</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>2365.151625718689</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524209</v>
+        <v>1991.685867457609</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548397</v>
+        <v>1601.546535481797</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.4849621798493</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>530.5487792519424</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>881.133427010089</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.133427010089</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>2212.771568013855</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1843.809051073443</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1485.543352466693</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1099.755099868448</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2470.560553036583</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2097.094794775503</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.955462799692</v>
+        <v>2599.371408077977</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>630.8037095364738</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="V10" t="n">
-        <v>1261.234304408261</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="W10" t="n">
-        <v>1261.234304408261</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X10" t="n">
-        <v>1033.244753510244</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y10" t="n">
-        <v>812.4521743667135</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,16 +5032,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5281,19 +5281,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,16 +5354,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5533,22 +5533,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2186.371995553553</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1897.296768897751</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1642.612280691864</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,19 +5840,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6068,22 +6068,22 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1781.474694297818</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1526.790206091931</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1237.37303605497</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1237.37303605497</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,52 +6223,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,61 +6442,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
         <v>402.7245934908938</v>
@@ -6615,58 +6615,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1568.745695178747</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1279.328525141787</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1051.338974243769</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>984.5467179762944</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>815.6105350483875</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>665.4938956360518</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>517.5808020536587</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,43 +6931,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,34 +7186,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.3544215660705</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>612.4182386381636</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.0028863963103</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349511</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.574735228845</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>948.5505208511906</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>948.5505208511906</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.680607402613532</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>206.8218058926138</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.223257881847</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U25" t="n">
-        <v>92.15795203868001</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>268.0202376130202</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
-        <v>133.6938862346289</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3131525023045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>83.79952661609431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>194.8566322838567</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676264.9921494647</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494644</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="H2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
@@ -26340,22 +26340,22 @@
         <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="O2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.660247097694083e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314495</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314495</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179357</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26453,7 +26453,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767569.1161876684</v>
+        <v>-767569.1161876676</v>
       </c>
       <c r="C6" t="n">
-        <v>561175.6295399243</v>
+        <v>561175.6295399244</v>
       </c>
       <c r="D6" t="n">
-        <v>561175.6295399241</v>
+        <v>561175.6295399235</v>
       </c>
       <c r="E6" t="n">
-        <v>308908.5808301994</v>
+        <v>308561.2015758426</v>
       </c>
       <c r="F6" t="n">
-        <v>634321.0426375546</v>
+        <v>633973.6633831979</v>
       </c>
       <c r="G6" t="n">
-        <v>634321.0426375548</v>
+        <v>633973.6633831976</v>
       </c>
       <c r="H6" t="n">
-        <v>634321.0426375546</v>
+        <v>633973.6633831975</v>
       </c>
       <c r="I6" t="n">
-        <v>634321.0426375546</v>
+        <v>633973.6633831975</v>
       </c>
       <c r="J6" t="n">
-        <v>416789.8402402772</v>
+        <v>416442.4609859202</v>
       </c>
       <c r="K6" t="n">
-        <v>634321.0426375547</v>
+        <v>633973.6633831975</v>
       </c>
       <c r="L6" t="n">
-        <v>634321.0426375546</v>
+        <v>633973.663383198</v>
       </c>
       <c r="M6" t="n">
-        <v>549266.0147020428</v>
+        <v>548918.6354476856</v>
       </c>
       <c r="N6" t="n">
-        <v>634321.0426375546</v>
+        <v>633973.6633831975</v>
       </c>
       <c r="O6" t="n">
-        <v>634321.0426375546</v>
+        <v>633973.6633831979</v>
       </c>
       <c r="P6" t="n">
-        <v>634321.0426375549</v>
+        <v>633973.6633831977</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>121.5237450221202</v>
       </c>
       <c r="G2" t="n">
-        <v>33.30103011898728</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>242.0692968374314</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>120.6078108357951</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17.0718894304718</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>86.32650700305081</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911191</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>14.88262538744959</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>131.0719119535089</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.6041432284823</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>6.231572700460887</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>98.49878956218052</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>508.374771698973</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32788,10 +32788,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>459.3154675919703</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>504.7812948344583</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>144.237359508534</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>465.2641870096817</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8203919190988</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>316.7192231475259</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>362.64726091244</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>6.395920534175052</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>327.4227480353227</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3506580.454824241</v>
+        <v>3508340.985127026</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7852820.027840749</v>
+        <v>7852820.027840751</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>285.3523007195912</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>134.0513867710685</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>97.97684251629953</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>97.97684251629967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>22.86125478512508</v>
+        <v>40.12741312164625</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347161</v>
+        <v>13.02719212039518</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>275.8041337882025</v>
+        <v>275.8041337882017</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>45.106837292256</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>82.70057996958644</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.88994825141584</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>241.4474687473724</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126791</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>104.8913819999787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060465</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453158</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2222.416181075864</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C2" t="n">
-        <v>1853.453664135452</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>1495.187965528702</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>1109.399712930457</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.7846764101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139986</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>2609.016021139986</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y2" t="n">
-        <v>2609.016021139986</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686089</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080144</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>947.0373240702323</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>778.1011411423254</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>627.9845017299897</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>480.0714081475966</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>333.1814606496862</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>165.4786240244051</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4533,7 +4533,7 @@
         <v>1128.685788900472</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1128.685788900472</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>828.543614500981</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>470.2779158942305</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>84.48966329598633</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810549</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3302.513645058537</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="T5" t="n">
-        <v>3302.513645058537</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="U5" t="n">
-        <v>3048.983168332374</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V5" t="n">
-        <v>2717.920280988803</v>
+        <v>2700.47971701252</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.151625718689</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X5" t="n">
-        <v>1991.685867457609</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.546535481797</v>
+        <v>1584.105971505514</v>
       </c>
     </row>
     <row r="6">
@@ -4640,16 +4640,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158128</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2212.771568013855</v>
+        <v>2212.771568013854</v>
       </c>
       <c r="C8" t="n">
-        <v>1843.809051073443</v>
+        <v>1843.809051073442</v>
       </c>
       <c r="D8" t="n">
-        <v>1485.543352466693</v>
+        <v>1485.543352466692</v>
       </c>
       <c r="E8" t="n">
         <v>1099.755099868448</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2599.371408077977</v>
+        <v>2599.371408077976</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>725.9304417640992</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>556.9942588361923</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>406.8776194238566</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>258.9645258414635</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>112.0745783435531</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1843.758608725274</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1843.758608725274</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1843.758608725274</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1843.758608725274</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1843.758608725274</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>1554.341438688313</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.351887790296</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,19 +5536,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6174,25 +6174,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
@@ -6408,25 +6408,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
         <v>753.3092412490405</v>
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6615,10 +6615,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,13 +6645,13 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,13 +6715,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6961,16 +6961,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7086,13 +7086,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429802</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>2.288530476235451e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.73700564187172</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.6085800303767</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610399</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>39.70888054695307</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676264.9921494644</v>
+        <v>676264.9921494646</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676264.9921494646</v>
+        <v>676264.9921494647</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.660247097694083e-10</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314495</v>
+        <v>90354.06702314492</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314495</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26441,7 +26441,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767569.1161876676</v>
+        <v>-767569.1161876678</v>
       </c>
       <c r="C6" t="n">
         <v>561175.6295399244</v>
       </c>
       <c r="D6" t="n">
-        <v>561175.6295399235</v>
+        <v>561175.6295399239</v>
       </c>
       <c r="E6" t="n">
-        <v>308561.2015758426</v>
+        <v>308873.8429047634</v>
       </c>
       <c r="F6" t="n">
-        <v>633973.6633831979</v>
+        <v>634286.304712119</v>
       </c>
       <c r="G6" t="n">
-        <v>633973.6633831976</v>
+        <v>634286.3047121193</v>
       </c>
       <c r="H6" t="n">
-        <v>633973.6633831975</v>
+        <v>634286.304712119</v>
       </c>
       <c r="I6" t="n">
-        <v>633973.6633831975</v>
+        <v>634286.3047121188</v>
       </c>
       <c r="J6" t="n">
-        <v>416442.4609859202</v>
+        <v>416755.1023148416</v>
       </c>
       <c r="K6" t="n">
-        <v>633973.6633831975</v>
+        <v>634286.304712119</v>
       </c>
       <c r="L6" t="n">
-        <v>633973.663383198</v>
+        <v>634286.3047121192</v>
       </c>
       <c r="M6" t="n">
-        <v>548918.6354476856</v>
+        <v>549231.2767766069</v>
       </c>
       <c r="N6" t="n">
-        <v>633973.6633831975</v>
+        <v>634286.3047121189</v>
       </c>
       <c r="O6" t="n">
-        <v>633973.6633831979</v>
+        <v>634286.3047121192</v>
       </c>
       <c r="P6" t="n">
-        <v>633973.6633831977</v>
+        <v>634286.3047121192</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>121.5237450221202</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>235.6797139074006</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>46.77817239802125</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>120.6078108357951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>86.32650700305081</v>
+        <v>69.06034866652962</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911191</v>
+        <v>239.1104512034328</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>131.0719119535089</v>
+        <v>131.0719119535098</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>120.9189709667722</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.231572700460887</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997668</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
